--- a/output/aggregate_tables/summary_of_areas_by_tier.xlsx
+++ b/output/aggregate_tables/summary_of_areas_by_tier.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tier 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tier 2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tier 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2754,4 +2755,985 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of stocks</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ASFIS species</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ISSCAAP groups</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No. of U</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>No. of MSF</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>No. of O</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sustainable</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Unsustainable</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>153</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>10.45751633986928</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>53.59477124183007</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>35.94771241830065</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>64.05228758169935</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>35.94771241830065</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>117</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>10.1123595505618</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>65.73033707865169</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>24.15730337078652</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>75.84269662921348</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>24.15730337078652</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>103</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>37.86407766990291</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>25.24271844660194</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>36.89320388349515</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>63.10679611650486</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>36.89320388349515</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>30.3030303030303</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>53.03030303030303</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>46.96969696969697</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>53.03030303030303</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>114</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.894736842105263</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>27.19298245614035</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>64.91228070175438</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>35.08771929824561</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>64.91228070175438</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>14.70588235294118</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>42.64705882352941</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>42.64705882352941</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>57.35294117647059</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>42.64705882352941</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>32.53012048192771</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>27.71084337349398</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>39.75903614457831</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>60.24096385542169</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>39.75903614457831</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>476</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>288</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>108</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>193</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>175</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>301</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>175</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>22.6890756302521</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>40.54621848739496</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>36.76470588235294</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>63.23529411764706</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>36.76470588235294</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>313</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>202</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>156</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>229</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>23.32268370607029</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>49.84025559105431</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>26.8370607028754</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>73.16293929712459</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>26.8370607028754</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>30.85106382978723</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>30.85106382978723</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>38.29787234042553</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>61.70212765957447</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>38.29787234042553</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>102</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>51.81818181818182</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>40.90909090909091</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>7.272727272727272</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>92.72727272727272</v>
+      </c>
+      <c r="N12" s="4" t="n">
+        <v>7.272727272727272</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>265</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>144</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>139</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>23.0188679245283</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>29.43396226415094</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>47.54716981132076</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>52.45283018867924</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>47.54716981132076</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>37.63440860215054</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>32.25806451612903</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <v>30.10752688172043</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>69.89247311827957</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <v>30.10752688172043</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>166</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>142</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>10.24096385542169</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>75.30120481927712</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>14.4578313253012</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>85.54216867469879</v>
+      </c>
+      <c r="N15" s="4" t="n">
+        <v>14.4578313253012</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>18.36734693877551</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>27.55102040816326</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>54.08163265306123</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>45.91836734693878</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>54.08163265306123</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>48,58,88</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Salmon</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>30.58823529411765</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>36.47058823529412</v>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>32.94117647058823</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>67.05882352941175</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>32.94117647058823</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Sharks</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <v>51.85185185185185</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>29.62962962962963</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>70.37037037037037</v>
+      </c>
+      <c r="N19" s="4" t="n">
+        <v>29.62962962962963</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>56.52173913043478</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>30.43478260869566</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <v>13.04347826086956</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <v>86.95652173913044</v>
+      </c>
+      <c r="N20" s="4" t="n">
+        <v>13.04347826086956</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>2596</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>604</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>1077</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>915</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>1681</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>915</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <v>23.26656394453005</v>
+      </c>
+      <c r="K21" s="4" t="n">
+        <v>41.48690292758089</v>
+      </c>
+      <c r="L21" s="4" t="n">
+        <v>35.24653312788907</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v>64.75346687211095</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v>35.24653312788907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/aggregate_tables/summary_of_areas_by_tier.xlsx
+++ b/output/aggregate_tables/summary_of_areas_by_tier.xlsx
@@ -663,7 +663,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>38</v>
@@ -675,31 +675,31 @@
         <v>12</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>33</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>15.78947368421053</v>
+        <v>15.58441558441558</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>40.78947368421053</v>
+        <v>41.55844155844156</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>43.42105263157895</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>56.57894736842105</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>43.42105263157895</v>
+        <v>42.85714285714285</v>
       </c>
     </row>
     <row r="6">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>553</v>
@@ -1389,31 +1389,31 @@
         <v>375</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>500</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>500</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>26.13240418118467</v>
+        <v>26.11420612813371</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>39.02439024390244</v>
+        <v>39.06685236768802</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>34.84320557491289</v>
+        <v>34.81894150417828</v>
       </c>
       <c r="M21" s="4" t="n">
-        <v>65.1567944250871</v>
+        <v>65.18105849582173</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>34.84320557491289</v>
+        <v>34.81894150417828</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1603,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>10</v>
@@ -2980,7 +2980,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>63</v>
@@ -2992,31 +2992,31 @@
         <v>22</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>70</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>70</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>16.66666666666666</v>
+        <v>16.54135338345865</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>30.3030303030303</v>
+        <v>30.82706766917293</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>46.96969696969697</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>53.03030303030303</v>
+        <v>52.63157894736842</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>1012</v>
@@ -3706,31 +3706,31 @@
         <v>604</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>915</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>915</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>23.26656394453005</v>
+        <v>23.25760492876396</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>41.48690292758089</v>
+        <v>41.50943396226415</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>35.24653312788907</v>
+        <v>35.23296110897189</v>
       </c>
       <c r="M21" s="4" t="n">
-        <v>64.75346687211095</v>
+        <v>64.76703889102811</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>35.24653312788907</v>
+        <v>35.23296110897189</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/summary_of_areas_by_tier.xlsx
+++ b/output/aggregate_tables/summary_of_areas_by_tier.xlsx
@@ -1285,16 +1285,16 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>5</v>
@@ -1303,25 +1303,25 @@
         <v>8</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>8</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>51.85185185185185</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>18.51851851851852</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>70.37037037037037</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="20">
@@ -1377,16 +1377,16 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>24</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>561</v>
@@ -1395,25 +1395,25 @@
         <v>500</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>500</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>26.11420612813371</v>
+        <v>25.5960729312763</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>39.06685236768802</v>
+        <v>39.34081346423562</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>34.81894150417828</v>
+        <v>35.06311360448808</v>
       </c>
       <c r="M21" s="4" t="n">
-        <v>65.18105849582173</v>
+        <v>64.93688639551192</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>34.81894150417828</v>
+        <v>35.06311360448808</v>
       </c>
     </row>
   </sheetData>
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>5</v>
@@ -3620,25 +3620,25 @@
         <v>8</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>8</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>51.85185185185185</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>18.51851851851852</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>70.37037037037037</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="20">
@@ -3694,16 +3694,16 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>31</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>1078</v>
@@ -3712,25 +3712,25 @@
         <v>915</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>915</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>23.25760492876396</v>
+        <v>22.9609586393506</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>41.50943396226415</v>
+        <v>41.66988790104368</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>35.23296110897189</v>
+        <v>35.36915345960573</v>
       </c>
       <c r="M21" s="4" t="n">
-        <v>64.76703889102811</v>
+        <v>64.63084654039429</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>35.23296110897189</v>
+        <v>35.36915345960573</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/summary_of_areas_by_tier.xlsx
+++ b/output/aggregate_tables/summary_of_areas_by_tier.xlsx
@@ -1032,7 +1032,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Area 67 - Other Stocks</t>
+          <t>Area 67</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1078,7 +1078,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Area 67 - Salmon</t>
+          <t>Area 67 - Pacific Salmon</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5</v>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>5</v>
@@ -1330,25 +1330,25 @@
         <v>10</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J19" s="3" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="L19" s="3" t="n">
-        <v>47.61904761904761</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>52.38095238095239</v>
-      </c>
-      <c r="N19" s="3" t="n">
-        <v>47.61904761904761</v>
+      <c r="J19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>584</v>
@@ -1413,7 +1413,7 @@
         <v>24</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>609</v>
@@ -1422,25 +1422,25 @@
         <v>525</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>525</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>25.54169402495076</v>
+        <v>25.49277266754271</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>39.98686802363756</v>
+        <v>40.01314060446781</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>34.47143795141169</v>
+        <v>34.49408672798949</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>65.52856204858831</v>
+        <v>65.5059132720105</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>34.47143795141169</v>
+        <v>34.49408672798949</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>24</v>
@@ -1556,28 +1556,28 @@
         <v>13</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>25</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>27.27272727272727</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>29.54545454545455</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>43.18181818181818</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>56.81818181818182</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>43.18181818181818</v>
+        <v>44.44444444444444</v>
       </c>
     </row>
     <row r="3">
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>19</v>
@@ -1829,31 +1829,31 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>10</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>10</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>1.030927835051546</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>88.65979381443299</v>
+        <v>88.54166666666666</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>10.30927835051546</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>89.69072164948454</v>
+        <v>89.58333333333334</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>10.30927835051546</v>
+        <v>10.41666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -1863,13 +1863,13 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>11</v>
@@ -1878,28 +1878,28 @@
         <v>15</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>26</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>29.72972972972973</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>40.54054054054054</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>29.72972972972973</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>70.27027027027027</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>29.72972972972973</v>
+        <v>27.77777777777778</v>
       </c>
     </row>
     <row r="10">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>4</v>
@@ -2062,28 +2062,28 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>16.66666666666666</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>83.33333333333334</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>16.66666666666666</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>83.33333333333334</v>
+        <v>82.60869565217391</v>
       </c>
     </row>
     <row r="14">
@@ -2093,10 +2093,10 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>1</v>
@@ -2105,22 +2105,22 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>50</v>
+      <c r="J14" s="3" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>66.66666666666666</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>0</v>
@@ -2139,13 +2139,13 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>112</v>
@@ -2154,28 +2154,28 @@
         <v>234</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>346</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>19.78798586572438</v>
+        <v>19.82300884955752</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>41.34275618374559</v>
+        <v>41.41592920353983</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>38.86925795053003</v>
+        <v>38.76106194690265</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>61.13074204946997</v>
+        <v>61.23893805309735</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>38.86925795053003</v>
+        <v>38.76106194690265</v>
       </c>
     </row>
   </sheetData>
@@ -2322,13 +2322,13 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>38</v>
@@ -2337,28 +2337,28 @@
         <v>83</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>121</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>20.54054054054054</v>
+        <v>20.65217391304348</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>44.86486486486487</v>
+        <v>45.10869565217391</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>34.5945945945946</v>
+        <v>34.23913043478261</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>65.4054054054054</v>
+        <v>65.76086956521739</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>34.5945945945946</v>
+        <v>34.23913043478261</v>
       </c>
     </row>
     <row r="4">
@@ -2598,13 +2598,13 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>88</v>
@@ -2613,28 +2613,28 @@
         <v>227</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>315</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>18.21946169772256</v>
+        <v>18.25726141078838</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>46.99792960662526</v>
+        <v>47.0954356846473</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>34.78260869565217</v>
+        <v>34.64730290456431</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>65.21739130434783</v>
+        <v>65.35269709543569</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>34.78260869565217</v>
+        <v>34.64730290456431</v>
       </c>
     </row>
   </sheetData>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>50</v>
@@ -2842,28 +2842,28 @@
         <v>26</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>65</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>38.23529411764706</v>
+        <v>37.86407766990291</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>25.49019607843137</v>
+        <v>25.24271844660194</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>36.27450980392157</v>
+        <v>36.89320388349515</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>63.72549019607843</v>
+        <v>63.10679611650486</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>36.27450980392157</v>
+        <v>36.89320388349515</v>
       </c>
     </row>
     <row r="5">
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>104</v>
@@ -3118,28 +3118,28 @@
         <v>192</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>296</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>22.08067940552017</v>
+        <v>22.12765957446808</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>40.76433121019109</v>
+        <v>40.85106382978723</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>37.15498938428875</v>
+        <v>37.02127659574468</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>62.84501061571125</v>
+        <v>62.97872340425532</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>37.15498938428875</v>
+        <v>37.02127659574468</v>
       </c>
     </row>
     <row r="11">
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>20</v>
@@ -3161,31 +3161,31 @@
         <v>72</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>84</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>84</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>23.30097087378641</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>49.51456310679612</v>
+        <v>49.35064935064935</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>27.18446601941747</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>72.81553398058253</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>27.18446601941747</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="12">
@@ -3195,13 +3195,13 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>29</v>
@@ -3210,34 +3210,34 @@
         <v>29</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>58</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>37.63440860215054</v>
+        <v>36.95652173913043</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>62.36559139784946</v>
+        <v>63.04347826086957</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>37.63440860215054</v>
+        <v>36.95652173913043</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Area 67 - Other Stocks</t>
+          <t>Area 67</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -3283,7 +3283,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Area 67 - Salmon</t>
+          <t>Area 67 - Pacific Salmon</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -3471,13 +3471,13 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>18</v>
@@ -3486,28 +3486,28 @@
         <v>27</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>45</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>18.36734693877551</v>
+        <v>18.55670103092784</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>27.55102040816326</v>
+        <v>27.83505154639175</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>54.08163265306123</v>
+        <v>53.60824742268041</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>45.91836734693878</v>
+        <v>46.39175257731959</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>54.08163265306123</v>
+        <v>53.60824742268041</v>
       </c>
     </row>
     <row r="19">
@@ -3520,16 +3520,16 @@
         <v>23</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>6</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>10</v>
@@ -3541,10 +3541,10 @@
         <v>10</v>
       </c>
       <c r="J19" s="3" t="n">
+        <v>26.08695652173913</v>
+      </c>
+      <c r="K19" s="3" t="n">
         <v>30.43478260869566</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>26.08695652173913</v>
       </c>
       <c r="L19" s="3" t="n">
         <v>43.47826086956522</v>
@@ -3609,43 +3609,43 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>1070</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>22.900466562986</v>
+        <v>22.88828337874659</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>41.60186625194402</v>
+        <v>41.65044764499805</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>35.49766718506999</v>
+        <v>35.46126897625535</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>64.50233281493001</v>
+        <v>64.53873102374465</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>35.49766718506999</v>
+        <v>35.46126897625535</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/summary_of_areas_by_tier.xlsx
+++ b/output/aggregate_tables/summary_of_areas_by_tier.xlsx
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>39</v>
@@ -729,28 +729,28 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>40</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>7.964601769911504</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>27.43362831858407</v>
+        <v>27.19298245614035</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>35.39823008849557</v>
+        <v>35.08771929824561</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
     </row>
     <row r="7">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>584</v>
@@ -1419,28 +1419,28 @@
         <v>609</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>997</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>25.49277266754271</v>
+        <v>25.47603414313854</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>40.01314060446781</v>
+        <v>39.98686802363756</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>34.49408672798949</v>
+        <v>34.5370978332239</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>65.5059132720105</v>
+        <v>65.4629021667761</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>34.49408672798949</v>
+        <v>34.5370978332239</v>
       </c>
     </row>
   </sheetData>
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>11</v>
@@ -1556,28 +1556,28 @@
         <v>13</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>25</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>26.66666666666667</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>28.88888888888889</v>
+        <v>28.26086956521739</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>44.44444444444444</v>
+        <v>45.65217391304348</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>55.55555555555556</v>
+        <v>54.34782608695652</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>44.44444444444444</v>
+        <v>45.65217391304348</v>
       </c>
     </row>
     <row r="3">
@@ -1633,43 +1633,43 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>8</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>8</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>22.72727272727273</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>40.90909090909091</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>36.36363636363637</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>63.63636363636363</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>36.36363636363637</v>
+        <v>34.78260869565217</v>
       </c>
     </row>
     <row r="5">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>26</v>
@@ -2151,31 +2151,31 @@
         <v>112</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>19.82300884955752</v>
+        <v>19.75308641975309</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>41.41592920353983</v>
+        <v>41.44620811287478</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>38.76106194690265</v>
+        <v>38.80070546737213</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>61.23893805309735</v>
+        <v>61.19929453262787</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>38.76106194690265</v>
+        <v>38.80070546737213</v>
       </c>
     </row>
   </sheetData>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>13</v>
@@ -2842,28 +2842,28 @@
         <v>26</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>65</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>37.86407766990291</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>25.24271844660194</v>
+        <v>37.5</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>25</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>63.10679611650486</v>
+        <v>62.5</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>36.89320388349515</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="5">
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>39</v>
@@ -2934,28 +2934,28 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>40</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>7.964601769911504</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>27.43362831858407</v>
+        <v>27.19298245614035</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>35.39823008849557</v>
+        <v>35.08771929824561</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
     </row>
     <row r="7">
@@ -2965,43 +2965,43 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>29</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>29</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>14.70588235294118</v>
+        <v>14.49275362318841</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>42.64705882352941</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>57.35294117647059</v>
+        <v>57.97101449275362</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
     </row>
     <row r="8">
@@ -3609,10 +3609,10 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>29</v>
@@ -3621,31 +3621,31 @@
         <v>588</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>22.88828337874659</v>
+        <v>22.86158631415241</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>41.65044764499805</v>
+        <v>41.6407465007776</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>35.46126897625535</v>
+        <v>35.49766718506999</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>64.53873102374465</v>
+        <v>64.50233281493001</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>35.46126897625535</v>
+        <v>35.49766718506999</v>
       </c>
     </row>
   </sheetData>
